--- a/database/industries/darou/dejaber/cost/yearly.xlsx
+++ b/database/industries/darou/dejaber/cost/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\dejaber\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dejaber\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C3024C-5506-41D6-8DC4-55D11CB28404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="62">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>دجابر-داروسازی‌ جابرابن‌حیان‌</t>
@@ -196,12 +197,21 @@
   </si>
   <si>
     <t>سایر هزینه ها</t>
+  </si>
+  <si>
+    <t>برآورد شرکت</t>
+  </si>
+  <si>
+    <t>دوره 12 ماهه منتهی به 1398/12/29</t>
+  </si>
+  <si>
+    <t>اطلاعات بهای تمام شده منوط به ترکیب تولید و فروش و نرخ ارز و مواد اولیه می باشد که بر این اساس پیش بینی میگردد کل عوامل بهای تمام شده (مواد ، دستمزد، سربار) در سال 1398 ،17% خواهد داشت.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -371,7 +381,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -383,7 +393,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -430,6 +440,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -465,6 +492,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -616,8 +660,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I167"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:I173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -953,7 +997,7 @@
         <v>6703</v>
       </c>
       <c r="I19" s="11">
-        <v>13860</v>
+        <v>13859</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -975,7 +1019,7 @@
         <v>-13860</v>
       </c>
       <c r="I20" s="9">
-        <v>-40383</v>
+        <v>-40382</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -3708,6 +3752,26 @@
         <v>787970</v>
       </c>
     </row>
+    <row r="171" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B171" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C171" s="6"/>
+      <c r="D171" s="6"/>
+      <c r="E171" s="6"/>
+      <c r="F171" s="6"/>
+    </row>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B173" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C173" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D173" s="9"/>
+      <c r="E173" s="9"/>
+      <c r="F173" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/industries/darou/dejaber/cost/yearly.xlsx
+++ b/database/industries/darou/dejaber/cost/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dejaber\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dejaber\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C3024C-5506-41D6-8DC4-55D11CB28404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D6752A-8472-498A-A957-785A0B638D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="62">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -47,6 +44,9 @@
   </si>
   <si>
     <t>دوازده ماهه منتهی به 1400/12</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -665,12 +665,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -680,7 +680,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -692,7 +692,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -704,7 +704,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -714,7 +714,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -726,7 +726,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -738,7 +738,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -748,7 +748,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -770,7 +770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -780,174 +780,174 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>996825</v>
+        <v>936865</v>
       </c>
       <c r="F10" s="9">
-        <v>936865</v>
+        <v>1006319</v>
       </c>
       <c r="G10" s="9">
-        <v>1006319</v>
+        <v>1273826</v>
       </c>
       <c r="H10" s="9">
-        <v>1273826</v>
+        <v>2632446</v>
       </c>
       <c r="I10" s="9">
-        <v>2632446</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4424606</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>70756</v>
+        <v>81251</v>
       </c>
       <c r="F11" s="11">
-        <v>81251</v>
+        <v>115099</v>
       </c>
       <c r="G11" s="11">
-        <v>115099</v>
+        <v>165087</v>
       </c>
       <c r="H11" s="11">
-        <v>165087</v>
+        <v>275937</v>
       </c>
       <c r="I11" s="11">
-        <v>275937</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>475215</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>234395</v>
+        <v>278088</v>
       </c>
       <c r="F12" s="9">
-        <v>278088</v>
+        <v>381741</v>
       </c>
       <c r="G12" s="9">
-        <v>381741</v>
+        <v>695076</v>
       </c>
       <c r="H12" s="9">
-        <v>695076</v>
+        <v>787970</v>
       </c>
       <c r="I12" s="9">
-        <v>787970</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1272620</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>1301976</v>
+        <v>1296204</v>
       </c>
       <c r="F13" s="13">
-        <v>1296204</v>
+        <v>1503159</v>
       </c>
       <c r="G13" s="13">
-        <v>1503159</v>
+        <v>2133989</v>
       </c>
       <c r="H13" s="13">
-        <v>2133989</v>
+        <v>3696353</v>
       </c>
       <c r="I13" s="13">
-        <v>3696353</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6172441</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>-108</v>
+        <v>-645</v>
       </c>
       <c r="F14" s="9">
-        <v>-645</v>
+        <v>-462</v>
       </c>
       <c r="G14" s="9">
-        <v>-462</v>
+        <v>-750</v>
       </c>
       <c r="H14" s="9">
-        <v>-750</v>
+        <v>-1100</v>
       </c>
       <c r="I14" s="9">
-        <v>-1100</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1746</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>1301868</v>
+        <v>1295559</v>
       </c>
       <c r="F15" s="13">
-        <v>1295559</v>
+        <v>1502697</v>
       </c>
       <c r="G15" s="13">
-        <v>1502697</v>
+        <v>2133239</v>
       </c>
       <c r="H15" s="13">
-        <v>2133239</v>
+        <v>3695253</v>
       </c>
       <c r="I15" s="13">
-        <v>3695253</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6170695</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>-19299</v>
+        <v>60180</v>
       </c>
       <c r="F16" s="9">
-        <v>60180</v>
+        <v>-19548</v>
       </c>
       <c r="G16" s="9">
-        <v>-19548</v>
+        <v>3009</v>
       </c>
       <c r="H16" s="9">
-        <v>3009</v>
+        <v>-155298</v>
       </c>
       <c r="I16" s="9">
-        <v>-155298</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>151567</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>-9229</v>
+        <v>-553</v>
       </c>
       <c r="F17" s="11">
-        <v>-553</v>
+        <v>-11046</v>
       </c>
       <c r="G17" s="11">
-        <v>-11046</v>
+        <v>0</v>
       </c>
       <c r="H17" s="11">
         <v>0</v>
@@ -956,108 +956,108 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>1273340</v>
+        <v>1355186</v>
       </c>
       <c r="F18" s="15">
-        <v>1355186</v>
+        <v>1472103</v>
       </c>
       <c r="G18" s="15">
-        <v>1472103</v>
+        <v>2136248</v>
       </c>
       <c r="H18" s="15">
-        <v>2136248</v>
+        <v>3539955</v>
       </c>
       <c r="I18" s="15">
-        <v>3539955</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6322262</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>47172</v>
+        <v>26058</v>
       </c>
       <c r="F19" s="11">
-        <v>26058</v>
+        <v>35996</v>
       </c>
       <c r="G19" s="11">
-        <v>35996</v>
+        <v>6703</v>
       </c>
       <c r="H19" s="11">
-        <v>6703</v>
+        <v>13860</v>
       </c>
       <c r="I19" s="11">
-        <v>13859</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>40383</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-26058</v>
+        <v>-35996</v>
       </c>
       <c r="F20" s="9">
-        <v>-35996</v>
+        <v>-8035</v>
       </c>
       <c r="G20" s="9">
-        <v>-8035</v>
+        <v>-13860</v>
       </c>
       <c r="H20" s="9">
-        <v>-13860</v>
+        <v>-40383</v>
       </c>
       <c r="I20" s="9">
-        <v>-40382</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-460661</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>1294454</v>
+        <v>1345248</v>
       </c>
       <c r="F21" s="13">
-        <v>1345248</v>
+        <v>1500064</v>
       </c>
       <c r="G21" s="13">
-        <v>1500064</v>
+        <v>2129091</v>
       </c>
       <c r="H21" s="13">
-        <v>2129091</v>
+        <v>3513432</v>
       </c>
       <c r="I21" s="13">
-        <v>3513432</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5901984</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
-        <v>17435</v>
+        <v>3008</v>
       </c>
       <c r="F22" s="9">
-        <v>3008</v>
+        <v>-23078</v>
       </c>
       <c r="G22" s="9">
-        <v>-23078</v>
+        <v>0</v>
       </c>
       <c r="H22" s="9">
         <v>0</v>
@@ -1066,29 +1066,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>1311889</v>
+        <v>1348256</v>
       </c>
       <c r="F23" s="13">
-        <v>1348256</v>
+        <v>1476986</v>
       </c>
       <c r="G23" s="13">
-        <v>1476986</v>
+        <v>2129091</v>
       </c>
       <c r="H23" s="13">
-        <v>2129091</v>
+        <v>3513432</v>
       </c>
       <c r="I23" s="13">
-        <v>3513432</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5901984</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1098,7 +1098,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1108,7 +1108,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1118,7 +1118,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1150,7 +1150,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1167,14 +1167,14 @@
       <c r="G29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="9" t="s">
-        <v>26</v>
+      <c r="H29" s="9">
+        <v>2474659</v>
       </c>
       <c r="I29" s="9">
-        <v>2474659</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2646030</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>27</v>
       </c>
@@ -1191,14 +1191,14 @@
       <c r="G30" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H30" s="11" t="s">
-        <v>26</v>
+      <c r="H30" s="11">
+        <v>72029</v>
       </c>
       <c r="I30" s="11">
-        <v>72029</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>95458</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>29</v>
       </c>
@@ -1209,20 +1209,20 @@
       <c r="E31" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>26</v>
+      <c r="F31" s="9">
+        <v>250058</v>
       </c>
       <c r="G31" s="9">
-        <v>250058</v>
+        <v>341709</v>
       </c>
       <c r="H31" s="9">
-        <v>341709</v>
+        <v>331463</v>
       </c>
       <c r="I31" s="9">
-        <v>331463</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>380590</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>30</v>
       </c>
@@ -1233,20 +1233,20 @@
       <c r="E32" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>26</v>
+      <c r="F32" s="11">
+        <v>99177030</v>
       </c>
       <c r="G32" s="11">
-        <v>99177030</v>
+        <v>163259274</v>
       </c>
       <c r="H32" s="11">
-        <v>163259274</v>
+        <v>178209797</v>
       </c>
       <c r="I32" s="11">
-        <v>178209797</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>215238054</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>32</v>
       </c>
@@ -1257,12 +1257,12 @@
       <c r="E33" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G33" s="9">
+      <c r="F33" s="9">
         <v>25470751</v>
       </c>
+      <c r="G33" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="H33" s="9" t="s">
         <v>26</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>12</v>
       </c>
@@ -1280,19 +1280,19 @@
         <v>0</v>
       </c>
       <c r="F34" s="13">
-        <v>0</v>
+        <v>124897839</v>
       </c>
       <c r="G34" s="13">
-        <v>124897839</v>
+        <v>163600983</v>
       </c>
       <c r="H34" s="13">
-        <v>163600983</v>
+        <v>181087948</v>
       </c>
       <c r="I34" s="13">
-        <v>181087948</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>218360132</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1302,7 +1302,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1312,7 +1312,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1322,7 +1322,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>33</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1354,7 +1354,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>24</v>
       </c>
@@ -1371,14 +1371,14 @@
       <c r="G40" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H40" s="9" t="s">
-        <v>26</v>
+      <c r="H40" s="9">
+        <v>280050</v>
       </c>
       <c r="I40" s="9">
-        <v>280050</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+        <v>29122</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>27</v>
       </c>
@@ -1395,14 +1395,14 @@
       <c r="G41" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H41" s="11" t="s">
-        <v>26</v>
+      <c r="H41" s="11">
+        <v>215300</v>
       </c>
       <c r="I41" s="11">
-        <v>215300</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+        <v>230737</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>29</v>
       </c>
@@ -1413,20 +1413,20 @@
       <c r="E42" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F42" s="9" t="s">
-        <v>26</v>
+      <c r="F42" s="9">
+        <v>510223</v>
       </c>
       <c r="G42" s="9">
-        <v>510223</v>
+        <v>491743</v>
       </c>
       <c r="H42" s="9">
-        <v>491743</v>
+        <v>451465</v>
       </c>
       <c r="I42" s="9">
-        <v>451465</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+        <v>527543</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>30</v>
       </c>
@@ -1437,20 +1437,20 @@
       <c r="E43" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F43" s="11" t="s">
-        <v>26</v>
+      <c r="F43" s="11">
+        <v>656065</v>
       </c>
       <c r="G43" s="11">
-        <v>656065</v>
+        <v>228755938</v>
       </c>
       <c r="H43" s="11">
-        <v>228755938</v>
+        <v>306169050</v>
       </c>
       <c r="I43" s="11">
-        <v>306169050</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>188926947</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>32</v>
       </c>
@@ -1461,12 +1461,12 @@
       <c r="E44" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F44" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G44" s="9">
+      <c r="F44" s="9">
         <v>214294907</v>
       </c>
+      <c r="G44" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="H44" s="9" t="s">
         <v>26</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
         <v>12</v>
       </c>
@@ -1484,19 +1484,19 @@
         <v>0</v>
       </c>
       <c r="F45" s="13">
-        <v>0</v>
+        <v>215461195</v>
       </c>
       <c r="G45" s="13">
-        <v>215461195</v>
+        <v>229247681</v>
       </c>
       <c r="H45" s="13">
-        <v>229247681</v>
+        <v>307115865</v>
       </c>
       <c r="I45" s="13">
-        <v>307115865</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>189714349</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1506,7 +1506,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1516,7 +1516,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1526,7 +1526,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>34</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1558,7 +1558,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>24</v>
       </c>
@@ -1575,14 +1575,14 @@
       <c r="G51" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H51" s="9" t="s">
-        <v>26</v>
+      <c r="H51" s="9">
+        <v>108679</v>
       </c>
       <c r="I51" s="9">
-        <v>108679</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+        <v>112626</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>27</v>
       </c>
@@ -1599,14 +1599,14 @@
       <c r="G52" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H52" s="11" t="s">
-        <v>26</v>
+      <c r="H52" s="11">
+        <v>191872</v>
       </c>
       <c r="I52" s="11">
-        <v>191872</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+        <v>212694</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>29</v>
       </c>
@@ -1617,20 +1617,20 @@
       <c r="E53" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F53" s="9" t="s">
-        <v>26</v>
+      <c r="F53" s="9">
+        <v>418572</v>
       </c>
       <c r="G53" s="9">
-        <v>418572</v>
+        <v>429960</v>
       </c>
       <c r="H53" s="9">
-        <v>429960</v>
+        <v>402338</v>
       </c>
       <c r="I53" s="9">
-        <v>402338</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+        <v>503161</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>30</v>
       </c>
@@ -1641,20 +1641,20 @@
       <c r="E54" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F54" s="11" t="s">
-        <v>26</v>
+      <c r="F54" s="11">
+        <v>538216</v>
       </c>
       <c r="G54" s="11">
-        <v>538216</v>
+        <v>211330756</v>
       </c>
       <c r="H54" s="11">
-        <v>211330756</v>
+        <v>269140793</v>
       </c>
       <c r="I54" s="11">
-        <v>269140793</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>250582482</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>32</v>
       </c>
@@ -1665,12 +1665,12 @@
       <c r="E55" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F55" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G55" s="9">
+      <c r="F55" s="9">
         <v>175801263</v>
       </c>
+      <c r="G55" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="H55" s="9" t="s">
         <v>26</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>12</v>
       </c>
@@ -1688,19 +1688,19 @@
         <v>0</v>
       </c>
       <c r="F56" s="13">
-        <v>0</v>
+        <v>176758051</v>
       </c>
       <c r="G56" s="13">
-        <v>176758051</v>
+        <v>211760716</v>
       </c>
       <c r="H56" s="13">
-        <v>211760716</v>
+        <v>269843682</v>
       </c>
       <c r="I56" s="13">
-        <v>269843682</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>251410963</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1710,7 +1710,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1720,7 +1720,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1730,7 +1730,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
         <v>35</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1762,7 +1762,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>24</v>
       </c>
@@ -1779,14 +1779,14 @@
       <c r="G62" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H62" s="9" t="s">
-        <v>26</v>
+      <c r="H62" s="9">
+        <v>2646030</v>
       </c>
       <c r="I62" s="9">
-        <v>2646030</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2562526</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>27</v>
       </c>
@@ -1803,14 +1803,14 @@
       <c r="G63" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H63" s="11" t="s">
-        <v>26</v>
+      <c r="H63" s="11">
+        <v>95457</v>
       </c>
       <c r="I63" s="11">
-        <v>95457</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+        <v>113501</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>29</v>
       </c>
@@ -1821,20 +1821,20 @@
       <c r="E64" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F64" s="9" t="s">
-        <v>26</v>
+      <c r="F64" s="9">
+        <v>341709</v>
       </c>
       <c r="G64" s="9">
-        <v>341709</v>
+        <v>403492</v>
       </c>
       <c r="H64" s="9">
-        <v>403492</v>
+        <v>380590</v>
       </c>
       <c r="I64" s="9">
-        <v>380590</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>404972</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>30</v>
       </c>
@@ -1845,20 +1845,20 @@
       <c r="E65" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F65" s="11" t="s">
-        <v>26</v>
+      <c r="F65" s="11">
+        <v>99294879</v>
       </c>
       <c r="G65" s="11">
-        <v>99294879</v>
+        <v>180684456</v>
       </c>
       <c r="H65" s="11">
-        <v>180684456</v>
+        <v>215238054</v>
       </c>
       <c r="I65" s="11">
-        <v>215238054</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>153582519</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>32</v>
       </c>
@@ -1869,12 +1869,12 @@
       <c r="E66" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F66" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G66" s="9">
+      <c r="F66" s="9">
         <v>63964395</v>
       </c>
+      <c r="G66" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="H66" s="9" t="s">
         <v>26</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="12" t="s">
         <v>12</v>
       </c>
@@ -1892,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="F67" s="13">
-        <v>0</v>
+        <v>163600983</v>
       </c>
       <c r="G67" s="13">
-        <v>163600983</v>
+        <v>181087948</v>
       </c>
       <c r="H67" s="13">
-        <v>181087948</v>
+        <v>218360131</v>
       </c>
       <c r="I67" s="13">
-        <v>218360131</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+        <v>156663518</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1914,7 +1914,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1924,7 +1924,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1934,7 +1934,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B71" s="7" t="s">
         <v>36</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1966,7 +1966,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>24</v>
       </c>
@@ -1983,14 +1983,14 @@
       <c r="G73" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H73" s="9" t="s">
-        <v>26</v>
+      <c r="H73" s="9">
+        <v>40107</v>
       </c>
       <c r="I73" s="9">
-        <v>40107</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>50169</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>27</v>
       </c>
@@ -2007,14 +2007,14 @@
       <c r="G74" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H74" s="11" t="s">
-        <v>26</v>
+      <c r="H74" s="11">
+        <v>147172</v>
       </c>
       <c r="I74" s="11">
-        <v>147172</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+        <v>267390</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>29</v>
       </c>
@@ -2025,20 +2025,20 @@
       <c r="E75" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F75" s="9" t="s">
-        <v>26</v>
+      <c r="F75" s="9">
+        <v>78251</v>
       </c>
       <c r="G75" s="9">
-        <v>78251</v>
+        <v>233387</v>
       </c>
       <c r="H75" s="9">
-        <v>233387</v>
+        <v>120293</v>
       </c>
       <c r="I75" s="9">
-        <v>120293</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+        <v>209840</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>30</v>
       </c>
@@ -2049,20 +2049,20 @@
       <c r="E76" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F76" s="11" t="s">
-        <v>26</v>
+      <c r="F76" s="11">
+        <v>128540</v>
       </c>
       <c r="G76" s="11">
-        <v>128540</v>
+        <v>296016</v>
       </c>
       <c r="H76" s="11">
-        <v>296016</v>
+        <v>331228</v>
       </c>
       <c r="I76" s="11">
-        <v>331228</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+        <v>889943</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>32</v>
       </c>
@@ -2073,12 +2073,12 @@
       <c r="E77" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F77" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G77" s="9">
+      <c r="F77" s="9">
         <v>73456</v>
       </c>
+      <c r="G77" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="H77" s="9" t="s">
         <v>26</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>12</v>
       </c>
@@ -2096,19 +2096,19 @@
         <v>0</v>
       </c>
       <c r="F78" s="13">
-        <v>0</v>
+        <v>280247</v>
       </c>
       <c r="G78" s="13">
-        <v>280247</v>
+        <v>529403</v>
       </c>
       <c r="H78" s="13">
-        <v>529403</v>
+        <v>638800</v>
       </c>
       <c r="I78" s="13">
-        <v>638800</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1417342</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2118,7 +2118,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2128,7 +2128,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2138,7 +2138,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B82" s="7" t="s">
         <v>38</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2170,7 +2170,7 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>24</v>
       </c>
@@ -2187,14 +2187,14 @@
       <c r="G84" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H84" s="9" t="s">
-        <v>26</v>
+      <c r="H84" s="9">
+        <v>34332</v>
       </c>
       <c r="I84" s="9">
-        <v>34332</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+        <v>57400</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>27</v>
       </c>
@@ -2211,14 +2211,14 @@
       <c r="G85" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H85" s="11" t="s">
-        <v>26</v>
+      <c r="H85" s="11">
+        <v>948790</v>
       </c>
       <c r="I85" s="11">
-        <v>948790</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1602594</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>29</v>
       </c>
@@ -2229,20 +2229,20 @@
       <c r="E86" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F86" s="9" t="s">
-        <v>26</v>
+      <c r="F86" s="9">
+        <v>781715</v>
       </c>
       <c r="G86" s="9">
-        <v>781715</v>
+        <v>760435</v>
       </c>
       <c r="H86" s="9">
-        <v>760435</v>
+        <v>706731</v>
       </c>
       <c r="I86" s="9">
-        <v>706731</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1639526</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>30</v>
       </c>
@@ -2253,20 +2253,20 @@
       <c r="E87" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F87" s="11" t="s">
-        <v>26</v>
+      <c r="F87" s="11">
+        <v>48386</v>
       </c>
       <c r="G87" s="11">
-        <v>48386</v>
+        <v>622788</v>
       </c>
       <c r="H87" s="11">
-        <v>622788</v>
+        <v>1721135</v>
       </c>
       <c r="I87" s="11">
-        <v>1721135</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1343910</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>32</v>
       </c>
@@ -2277,12 +2277,12 @@
       <c r="E88" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F88" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G88" s="9">
+      <c r="F88" s="9">
         <v>425373</v>
       </c>
+      <c r="G88" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="H88" s="9" t="s">
         <v>26</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="12" t="s">
         <v>12</v>
       </c>
@@ -2300,19 +2300,19 @@
         <v>0</v>
       </c>
       <c r="F89" s="13">
-        <v>0</v>
+        <v>1255474</v>
       </c>
       <c r="G89" s="13">
-        <v>1255474</v>
+        <v>1383223</v>
       </c>
       <c r="H89" s="13">
-        <v>1383223</v>
+        <v>3410988</v>
       </c>
       <c r="I89" s="13">
-        <v>3410988</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4643430</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2322,7 +2322,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2332,7 +2332,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2342,7 +2342,7 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B93" s="7" t="s">
         <v>39</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2374,7 +2374,7 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>24</v>
       </c>
@@ -2391,14 +2391,14 @@
       <c r="G95" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H95" s="9" t="s">
-        <v>26</v>
+      <c r="H95" s="9">
+        <v>24270</v>
       </c>
       <c r="I95" s="9">
-        <v>24270</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+        <v>61816</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>27</v>
       </c>
@@ -2415,14 +2415,14 @@
       <c r="G96" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H96" s="11" t="s">
-        <v>26</v>
+      <c r="H96" s="11">
+        <v>828573</v>
       </c>
       <c r="I96" s="11">
-        <v>828573</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1701738</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>29</v>
       </c>
@@ -2433,20 +2433,20 @@
       <c r="E97" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F97" s="9" t="s">
-        <v>26</v>
+      <c r="F97" s="9">
+        <v>626579</v>
       </c>
       <c r="G97" s="9">
-        <v>626579</v>
+        <v>726356</v>
       </c>
       <c r="H97" s="9">
-        <v>726356</v>
+        <v>617184</v>
       </c>
       <c r="I97" s="9">
-        <v>617184</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1362170</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>30</v>
       </c>
@@ -2457,20 +2457,20 @@
       <c r="E98" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F98" s="11" t="s">
-        <v>26</v>
+      <c r="F98" s="11">
+        <v>38784</v>
       </c>
       <c r="G98" s="11">
-        <v>38784</v>
+        <v>547470</v>
       </c>
       <c r="H98" s="11">
-        <v>547470</v>
+        <v>1162419</v>
       </c>
       <c r="I98" s="11">
-        <v>1162419</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1298882</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>32</v>
       </c>
@@ -2481,12 +2481,12 @@
       <c r="E99" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F99" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G99" s="9">
+      <c r="F99" s="9">
         <v>340956</v>
       </c>
+      <c r="G99" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="H99" s="9" t="s">
         <v>26</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>12</v>
       </c>
@@ -2504,19 +2504,19 @@
         <v>0</v>
       </c>
       <c r="F100" s="13">
-        <v>0</v>
+        <v>1006319</v>
       </c>
       <c r="G100" s="13">
-        <v>1006319</v>
+        <v>1273826</v>
       </c>
       <c r="H100" s="13">
-        <v>1273826</v>
+        <v>2632446</v>
       </c>
       <c r="I100" s="13">
-        <v>2632446</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4424606</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -2526,7 +2526,7 @@
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2536,7 +2536,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2546,7 +2546,7 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B104" s="7" t="s">
         <v>40</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2578,7 +2578,7 @@
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>24</v>
       </c>
@@ -2595,14 +2595,14 @@
       <c r="G106" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H106" s="9" t="s">
-        <v>26</v>
+      <c r="H106" s="9">
+        <v>50169</v>
       </c>
       <c r="I106" s="9">
-        <v>50169</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+        <v>45753</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>27</v>
       </c>
@@ -2619,14 +2619,14 @@
       <c r="G107" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H107" s="11" t="s">
-        <v>26</v>
+      <c r="H107" s="11">
+        <v>267389</v>
       </c>
       <c r="I107" s="11">
-        <v>267389</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+        <v>168246</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>29</v>
       </c>
@@ -2637,20 +2637,20 @@
       <c r="E108" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F108" s="9" t="s">
-        <v>26</v>
+      <c r="F108" s="9">
+        <v>233387</v>
       </c>
       <c r="G108" s="9">
-        <v>233387</v>
+        <v>267466</v>
       </c>
       <c r="H108" s="9">
-        <v>267466</v>
+        <v>209840</v>
       </c>
       <c r="I108" s="9">
-        <v>209840</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+        <v>487196</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>30</v>
       </c>
@@ -2661,20 +2661,20 @@
       <c r="E109" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F109" s="11" t="s">
-        <v>26</v>
+      <c r="F109" s="11">
+        <v>138142</v>
       </c>
       <c r="G109" s="11">
-        <v>138142</v>
+        <v>371334</v>
       </c>
       <c r="H109" s="11">
-        <v>371334</v>
+        <v>889944</v>
       </c>
       <c r="I109" s="11">
-        <v>889944</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+        <v>934971</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="8" t="s">
         <v>32</v>
       </c>
@@ -2685,12 +2685,12 @@
       <c r="E110" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F110" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G110" s="9">
+      <c r="F110" s="9">
         <v>157873</v>
       </c>
+      <c r="G110" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="H110" s="9" t="s">
         <v>26</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="12" t="s">
         <v>12</v>
       </c>
@@ -2708,19 +2708,19 @@
         <v>0</v>
       </c>
       <c r="F111" s="13">
-        <v>0</v>
+        <v>529402</v>
       </c>
       <c r="G111" s="13">
-        <v>529402</v>
+        <v>638800</v>
       </c>
       <c r="H111" s="13">
-        <v>638800</v>
+        <v>1417342</v>
       </c>
       <c r="I111" s="13">
-        <v>1417342</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1636166</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2730,7 +2730,7 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2740,7 +2740,7 @@
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2750,7 +2750,7 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
         <v>41</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2782,7 +2782,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>24</v>
       </c>
@@ -2799,14 +2799,14 @@
       <c r="G117" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H117" s="9" t="s">
-        <v>26</v>
+      <c r="H117" s="9">
+        <v>16207</v>
       </c>
       <c r="I117" s="9">
-        <v>16207</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18960</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>27</v>
       </c>
@@ -2823,14 +2823,14 @@
       <c r="G118" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H118" s="11" t="s">
-        <v>26</v>
+      <c r="H118" s="11">
+        <v>2043233</v>
       </c>
       <c r="I118" s="11">
-        <v>2043233</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2801127</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>29</v>
       </c>
@@ -2841,20 +2841,20 @@
       <c r="E119" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F119" s="9" t="s">
-        <v>26</v>
+      <c r="F119" s="9">
+        <v>312931</v>
       </c>
       <c r="G119" s="9">
-        <v>312931</v>
+        <v>682999</v>
       </c>
       <c r="H119" s="9">
-        <v>682999</v>
+        <v>362915</v>
       </c>
       <c r="I119" s="9">
-        <v>362915</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+        <v>551354</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>30</v>
       </c>
@@ -2865,20 +2865,20 @@
       <c r="E120" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F120" s="11" t="s">
-        <v>26</v>
+      <c r="F120" s="11">
+        <v>1296</v>
       </c>
       <c r="G120" s="11">
-        <v>1296</v>
+        <v>1813</v>
       </c>
       <c r="H120" s="11">
-        <v>1813</v>
+        <v>1859</v>
       </c>
       <c r="I120" s="11">
-        <v>1859</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4135</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
         <v>32</v>
       </c>
@@ -2889,12 +2889,12 @@
       <c r="E121" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F121" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G121" s="9">
+      <c r="F121" s="9">
         <v>2884</v>
       </c>
+      <c r="G121" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="H121" s="9" t="s">
         <v>26</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -2912,7 +2912,7 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -2922,7 +2922,7 @@
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -2932,7 +2932,7 @@
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B125" s="7" t="s">
         <v>45</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -2964,7 +2964,7 @@
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>24</v>
       </c>
@@ -2981,14 +2981,14 @@
       <c r="G127" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H127" s="9" t="s">
-        <v>26</v>
+      <c r="H127" s="9">
+        <v>122592</v>
       </c>
       <c r="I127" s="9">
-        <v>122592</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1971018</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>27</v>
       </c>
@@ -3005,14 +3005,14 @@
       <c r="G128" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H128" s="11" t="s">
-        <v>26</v>
+      <c r="H128" s="11">
+        <v>4406828</v>
       </c>
       <c r="I128" s="11">
-        <v>4406828</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6945544</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>29</v>
       </c>
@@ -3023,20 +3023,20 @@
       <c r="E129" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F129" s="9" t="s">
-        <v>26</v>
+      <c r="F129" s="9">
+        <v>1532105</v>
       </c>
       <c r="G129" s="9">
-        <v>1532105</v>
+        <v>1546407</v>
       </c>
       <c r="H129" s="9">
-        <v>1546407</v>
+        <v>1565417</v>
       </c>
       <c r="I129" s="9">
-        <v>1565417</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3107853</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>30</v>
       </c>
@@ -3047,20 +3047,20 @@
       <c r="E130" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F130" s="11" t="s">
-        <v>26</v>
+      <c r="F130" s="11">
+        <v>73752</v>
       </c>
       <c r="G130" s="11">
-        <v>73752</v>
+        <v>2723</v>
       </c>
       <c r="H130" s="11">
-        <v>2723</v>
+        <v>5622</v>
       </c>
       <c r="I130" s="11">
-        <v>5622</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7113</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>32</v>
       </c>
@@ -3071,12 +3071,12 @@
       <c r="E131" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F131" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G131" s="9">
+      <c r="F131" s="9">
         <v>1985</v>
       </c>
+      <c r="G131" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="H131" s="9" t="s">
         <v>26</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3094,7 +3094,7 @@
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -3104,7 +3104,7 @@
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -3114,7 +3114,7 @@
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
     </row>
-    <row r="135" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B135" s="7" t="s">
         <v>46</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -3146,7 +3146,7 @@
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>24</v>
       </c>
@@ -3163,14 +3163,14 @@
       <c r="G137" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H137" s="9" t="s">
-        <v>26</v>
+      <c r="H137" s="9">
+        <v>223318</v>
       </c>
       <c r="I137" s="9">
-        <v>223318</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+        <v>548861</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>27</v>
       </c>
@@ -3187,14 +3187,14 @@
       <c r="G138" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H138" s="11" t="s">
-        <v>26</v>
+      <c r="H138" s="11">
+        <v>4318363</v>
       </c>
       <c r="I138" s="11">
-        <v>4318363</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8000875</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>29</v>
       </c>
@@ -3205,20 +3205,20 @@
       <c r="E139" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F139" s="9" t="s">
-        <v>26</v>
+      <c r="F139" s="9">
+        <v>1496944</v>
       </c>
       <c r="G139" s="9">
-        <v>1496944</v>
+        <v>1689357</v>
       </c>
       <c r="H139" s="9">
-        <v>1689357</v>
+        <v>1533994</v>
       </c>
       <c r="I139" s="9">
-        <v>1533994</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2707225</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
         <v>30</v>
       </c>
@@ -3229,20 +3229,20 @@
       <c r="E140" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F140" s="11" t="s">
-        <v>26</v>
+      <c r="F140" s="11">
+        <v>72060</v>
       </c>
       <c r="G140" s="11">
-        <v>72060</v>
+        <v>2591</v>
       </c>
       <c r="H140" s="11">
-        <v>2591</v>
+        <v>4319</v>
       </c>
       <c r="I140" s="11">
-        <v>4319</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5183</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>32</v>
       </c>
@@ -3253,12 +3253,12 @@
       <c r="E141" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F141" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G141" s="9">
+      <c r="F141" s="9">
         <v>1939</v>
       </c>
+      <c r="G141" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="H141" s="9" t="s">
         <v>26</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -3276,7 +3276,7 @@
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -3286,7 +3286,7 @@
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -3296,7 +3296,7 @@
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
     </row>
-    <row r="145" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B145" s="7" t="s">
         <v>47</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -3328,7 +3328,7 @@
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>24</v>
       </c>
@@ -3345,14 +3345,14 @@
       <c r="G147" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H147" s="9" t="s">
-        <v>26</v>
+      <c r="H147" s="9">
+        <v>18960</v>
       </c>
       <c r="I147" s="9">
-        <v>18960</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17855</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>27</v>
       </c>
@@ -3369,14 +3369,14 @@
       <c r="G148" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H148" s="11" t="s">
-        <v>26</v>
+      <c r="H148" s="11">
+        <v>2801146</v>
       </c>
       <c r="I148" s="11">
-        <v>2801146</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1482331</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
         <v>29</v>
       </c>
@@ -3387,20 +3387,20 @@
       <c r="E149" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F149" s="9" t="s">
-        <v>26</v>
+      <c r="F149" s="9">
+        <v>682999</v>
       </c>
       <c r="G149" s="9">
-        <v>682999</v>
+        <v>662878</v>
       </c>
       <c r="H149" s="9">
-        <v>662878</v>
+        <v>551354</v>
       </c>
       <c r="I149" s="9">
-        <v>551354</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1203036</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
         <v>30</v>
       </c>
@@ -3411,20 +3411,20 @@
       <c r="E150" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F150" s="11" t="s">
-        <v>26</v>
+      <c r="F150" s="11">
+        <v>1391</v>
       </c>
       <c r="G150" s="11">
-        <v>1391</v>
+        <v>2055</v>
       </c>
       <c r="H150" s="11">
-        <v>2055</v>
+        <v>4135</v>
       </c>
       <c r="I150" s="11">
-        <v>4135</v>
-      </c>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6088</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="8" t="s">
         <v>32</v>
       </c>
@@ -3435,12 +3435,12 @@
       <c r="E151" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F151" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G151" s="9">
+      <c r="F151" s="9">
         <v>2468</v>
       </c>
+      <c r="G151" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="H151" s="9" t="s">
         <v>26</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3458,7 +3458,7 @@
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -3468,7 +3468,7 @@
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -3478,7 +3478,7 @@
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
     </row>
-    <row r="155" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B155" s="7" t="s">
         <v>48</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -3510,7 +3510,7 @@
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>49</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>50</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B159" s="8" t="s">
         <v>51</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
         <v>52</v>
       </c>
@@ -3598,95 +3598,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
       <c r="E161" s="9">
-        <v>14265</v>
+        <v>30515</v>
       </c>
       <c r="F161" s="9">
-        <v>30515</v>
+        <v>38160</v>
       </c>
       <c r="G161" s="9">
-        <v>38160</v>
+        <v>61083</v>
       </c>
       <c r="H161" s="9">
-        <v>61083</v>
+        <v>122266</v>
       </c>
       <c r="I161" s="9">
-        <v>122266</v>
-      </c>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+        <v>139101</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C162" s="11"/>
       <c r="D162" s="11"/>
       <c r="E162" s="11">
-        <v>8104</v>
+        <v>8962</v>
       </c>
       <c r="F162" s="11">
-        <v>8962</v>
+        <v>8525</v>
       </c>
       <c r="G162" s="11">
-        <v>8525</v>
+        <v>10106</v>
       </c>
       <c r="H162" s="11">
-        <v>10106</v>
+        <v>11708</v>
       </c>
       <c r="I162" s="11">
-        <v>11708</v>
-      </c>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+        <v>22833</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
       <c r="E163" s="9">
-        <v>26776</v>
+        <v>21140</v>
       </c>
       <c r="F163" s="9">
-        <v>21140</v>
+        <v>21524</v>
       </c>
       <c r="G163" s="9">
-        <v>21524</v>
+        <v>34742</v>
       </c>
       <c r="H163" s="9">
-        <v>34742</v>
+        <v>31444</v>
       </c>
       <c r="I163" s="9">
-        <v>31444</v>
-      </c>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+        <v>55004</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B164" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C164" s="11"/>
       <c r="D164" s="11"/>
       <c r="E164" s="11">
-        <v>141980</v>
+        <v>164973</v>
       </c>
       <c r="F164" s="11">
-        <v>164973</v>
+        <v>203588</v>
       </c>
       <c r="G164" s="11">
-        <v>203588</v>
+        <v>296848</v>
       </c>
       <c r="H164" s="11">
-        <v>296848</v>
+        <v>408994</v>
       </c>
       <c r="I164" s="11">
-        <v>408994</v>
-      </c>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+        <v>707616</v>
+      </c>
+    </row>
+    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B165" s="8" t="s">
         <v>57</v>
       </c>
@@ -3708,51 +3708,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C166" s="11"/>
       <c r="D166" s="11"/>
       <c r="E166" s="11">
-        <v>43270</v>
+        <v>52498</v>
       </c>
       <c r="F166" s="11">
-        <v>52498</v>
+        <v>109944</v>
       </c>
       <c r="G166" s="11">
-        <v>109944</v>
+        <v>292297</v>
       </c>
       <c r="H166" s="11">
-        <v>292297</v>
+        <v>213558</v>
       </c>
       <c r="I166" s="11">
-        <v>213558</v>
-      </c>
-    </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+        <v>348066</v>
+      </c>
+    </row>
+    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B167" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C167" s="15"/>
       <c r="D167" s="15"/>
       <c r="E167" s="15">
-        <v>234395</v>
+        <v>278088</v>
       </c>
       <c r="F167" s="15">
-        <v>278088</v>
+        <v>381741</v>
       </c>
       <c r="G167" s="15">
-        <v>381741</v>
+        <v>695076</v>
       </c>
       <c r="H167" s="15">
-        <v>695076</v>
+        <v>787970</v>
       </c>
       <c r="I167" s="15">
-        <v>787970</v>
-      </c>
-    </row>
-    <row r="171" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1272620</v>
+      </c>
+    </row>
+    <row r="171" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B171" s="7" t="s">
         <v>59</v>
       </c>
@@ -3761,7 +3761,7 @@
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B173" s="8" t="s">
         <v>60</v>
       </c>
